--- a/model/processed_outputLOAN1.xlsx
+++ b/model/processed_outputLOAN1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="59">
   <si>
     <t xml:space="preserve">ExecutionDate</t>
   </si>
@@ -187,33 +187,9 @@
     <t>LOAN1</t>
   </si>
   <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>18050.0000</t>
-  </si>
-  <si>
     <t>202202</t>
   </si>
   <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>74.5177</t>
-  </si>
-  <si>
-    <t>9350.0000</t>
-  </si>
-  <si>
-    <t>18.9205</t>
-  </si>
-  <si>
-    <t>129.5548</t>
-  </si>
-  <si>
-    <t>28850.0000</t>
-  </si>
-  <si>
     <t>PRODUCT - B</t>
   </si>
   <si>
@@ -221,12 +197,6 @@
   </si>
   <si>
     <t>PRODUCT - C</t>
-  </si>
-  <si>
-    <t>10000.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
   </si>
   <si>
     <t>Product - ABC</t>
@@ -239,14 +209,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="167" formatCode="0.0000_);[RED]\(0.0000\)"/>
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="M/dd/yyyy"/>
+    <numFmt numFmtId="170" formatCode="MM/dd/yyyy"/>
+    <numFmt numFmtId="171" formatCode="#,##0.##"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -364,7 +335,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,39 +454,76 @@
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -795,14 +803,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n" s="65">
+      <c r="A2" t="n" s="102">
         <v>44598.0</v>
       </c>
-      <c r="B2" t="n" s="64">
+      <c r="B2" t="n" s="101">
         <v>44597.0</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1450,8 +1458,8 @@
       <c r="E50" t="s">
         <v>52</v>
       </c>
-      <c r="F50" t="s">
-        <v>53</v>
+      <c r="F50" t="n" s="31">
+        <v>100.0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1647,25 +1655,25 @@
       <c r="B2" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n" s="57">
+      <c r="C2" s="89" t="n">
         <v>44593.0</v>
       </c>
-      <c r="D2" t="n" s="56">
+      <c r="D2" s="88" t="n">
         <v>44593.0</v>
       </c>
-      <c r="E2" t="s" s="1">
+      <c r="E2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F2" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="G2" t="n" s="55">
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="87" t="n">
         <v>44593.0</v>
       </c>
-      <c r="H2" t="n" s="1">
+      <c r="H2" s="90" t="n">
         <v>18.0</v>
       </c>
-      <c r="I2" t="n" s="1">
+      <c r="I2" s="86" t="n">
         <v>20000.0</v>
       </c>
     </row>
@@ -1676,26 +1684,26 @@
       <c r="B3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n" s="60">
+      <c r="C3" s="94" t="n">
         <v>44594.0</v>
       </c>
-      <c r="D3" t="n" s="59">
+      <c r="D3" s="93" t="n">
         <v>44594.0</v>
       </c>
-      <c r="E3" t="s" s="1">
+      <c r="E3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F3" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="G3" t="n" s="58">
+      <c r="F3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="92" t="n">
         <v>44594.0</v>
       </c>
-      <c r="H3" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s" s="1">
-        <v>65</v>
+      <c r="H3" s="95" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I3" s="91" t="n">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,25 +1713,25 @@
       <c r="B4" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n" s="63">
+      <c r="C4" s="99" t="n">
         <v>44596.0</v>
       </c>
-      <c r="D4" t="n" s="62">
+      <c r="D4" s="98" t="n">
         <v>44592.0</v>
       </c>
-      <c r="E4" t="s" s="1">
+      <c r="E4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F4" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="G4" t="n" s="61">
+      <c r="F4" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="97" t="n">
         <v>44592.0</v>
       </c>
-      <c r="H4" t="n" s="1">
+      <c r="H4" s="100" t="n">
         <v>25.0</v>
       </c>
-      <c r="I4" t="n" s="1">
+      <c r="I4" s="96" t="n">
         <v>30000.0</v>
       </c>
     </row>
@@ -1749,25 +1757,25 @@
       <c r="B6" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n" s="48">
+      <c r="C6" s="59" t="n">
         <v>44592.0</v>
       </c>
-      <c r="D6" t="n" s="47">
+      <c r="D6" s="58" t="n">
         <v>44592.0</v>
       </c>
-      <c r="E6" t="s" s="1">
+      <c r="E6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F6" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="G6" t="n" s="46">
+      <c r="F6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="57" t="n">
         <v>44592.0</v>
       </c>
-      <c r="H6" t="n" s="1">
+      <c r="H6" s="60" t="n">
         <v>20.0</v>
       </c>
-      <c r="I6" t="n" s="1">
+      <c r="I6" s="56" t="n">
         <v>20000.0</v>
       </c>
     </row>
@@ -1778,25 +1786,25 @@
       <c r="B7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n" s="51">
+      <c r="C7" s="64" t="n">
         <v>44593.0</v>
       </c>
-      <c r="D7" t="n" s="50">
+      <c r="D7" s="63" t="n">
         <v>44593.0</v>
       </c>
-      <c r="E7" t="s" s="1">
+      <c r="E7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="G7" t="n" s="49">
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="62" t="n">
         <v>44593.0</v>
       </c>
-      <c r="H7" t="n" s="1">
+      <c r="H7" s="65" t="n">
         <v>8.0</v>
       </c>
-      <c r="I7" t="n" s="1">
+      <c r="I7" s="61" t="n">
         <v>10000.0</v>
       </c>
     </row>
@@ -1807,25 +1815,25 @@
       <c r="B8" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n" s="54">
+      <c r="C8" s="69" t="n">
         <v>44593.0</v>
       </c>
-      <c r="D8" t="n" s="53">
+      <c r="D8" s="68" t="n">
         <v>44593.0</v>
       </c>
-      <c r="E8" t="s" s="1">
+      <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="G8" t="n" s="52">
+      <c r="F8" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="67" t="n">
         <v>44593.0</v>
       </c>
-      <c r="H8" t="n" s="1">
+      <c r="H8" s="70" t="n">
         <v>28.0</v>
       </c>
-      <c r="I8" t="n" s="1">
+      <c r="I8" s="66" t="n">
         <v>30000.0</v>
       </c>
     </row>
@@ -1851,25 +1859,25 @@
       <c r="B10" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C10" t="n" s="39">
+      <c r="C10" s="74" t="n">
         <v>44592.0</v>
       </c>
-      <c r="D10" t="n" s="38">
+      <c r="D10" s="73" t="n">
         <v>44592.0</v>
       </c>
-      <c r="E10" t="s" s="1">
+      <c r="E10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F10" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="G10" t="n" s="37">
+      <c r="F10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="72" t="n">
         <v>44592.0</v>
       </c>
-      <c r="H10" t="n" s="1">
+      <c r="H10" s="75" t="n">
         <v>20.0</v>
       </c>
-      <c r="I10" t="n" s="1">
+      <c r="I10" s="71" t="n">
         <v>20000.0</v>
       </c>
     </row>
@@ -1880,25 +1888,25 @@
       <c r="B11" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n" s="42">
+      <c r="C11" s="79" t="n">
         <v>44592.0</v>
       </c>
-      <c r="D11" t="n" s="41">
+      <c r="D11" s="78" t="n">
         <v>44592.0</v>
       </c>
-      <c r="E11" t="s" s="1">
+      <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F11" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="G11" t="n" s="40">
+      <c r="F11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="77" t="n">
         <v>44592.0</v>
       </c>
-      <c r="H11" t="n" s="1">
+      <c r="H11" s="80" t="n">
         <v>10.0</v>
       </c>
-      <c r="I11" t="n" s="1">
+      <c r="I11" s="76" t="n">
         <v>10000.0</v>
       </c>
     </row>
@@ -1909,25 +1917,25 @@
       <c r="B12" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C12" t="n" s="45">
+      <c r="C12" s="84" t="n">
         <v>44592.0</v>
       </c>
-      <c r="D12" t="n" s="44">
+      <c r="D12" s="83" t="n">
         <v>44592.0</v>
       </c>
-      <c r="E12" t="s" s="1">
+      <c r="E12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F12" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="G12" t="n" s="43">
+      <c r="F12" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="82" t="n">
         <v>44592.0</v>
       </c>
-      <c r="H12" t="n" s="1">
+      <c r="H12" s="85" t="n">
         <v>30.0</v>
       </c>
-      <c r="I12" t="n" s="1">
+      <c r="I12" s="81" t="n">
         <v>30000.0</v>
       </c>
     </row>
@@ -2014,23 +2022,23 @@
       <c r="B2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n" s="31">
+      <c r="C2" s="38" t="n">
         <v>44598.0</v>
       </c>
-      <c r="D2" t="s" s="1">
+      <c r="D2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F2" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s" s="1">
-        <v>54</v>
+      <c r="E2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="36" t="n">
+        <v>18050.0</v>
+      </c>
+      <c r="G2" s="39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" s="37" t="n">
+        <v>18050.0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,23 +2048,23 @@
       <c r="B3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="n" s="33">
+      <c r="C3" s="46" t="n">
         <v>44598.0</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="D3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F3" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="H3" t="s" s="1">
-        <v>58</v>
+      <c r="E3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="44" t="n">
+        <v>9350.0</v>
+      </c>
+      <c r="G3" s="47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="45" t="n">
+        <v>9350.0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2066,23 +2074,23 @@
       <c r="B4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n" s="36">
+      <c r="C4" s="54" t="n">
         <v>44598.0</v>
       </c>
-      <c r="D4" t="s" s="1">
+      <c r="D4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F4" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="H4" t="s" s="1">
-        <v>61</v>
+      <c r="E4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="52" t="n">
+        <v>28850.0</v>
+      </c>
+      <c r="G4" s="55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="53" t="n">
+        <v>28850.0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2106,23 +2114,23 @@
       <c r="B6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n" s="32">
+      <c r="C6" s="34" t="n">
         <v>44598.0</v>
       </c>
-      <c r="D6" t="s" s="1">
+      <c r="D6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E6" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F6" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="G6" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s" s="1">
-        <v>57</v>
+      <c r="E6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="32" t="n">
+        <v>74.5178</v>
+      </c>
+      <c r="G6" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="33" t="n">
+        <v>74.5178</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2132,23 +2140,23 @@
       <c r="B7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n" s="34">
+      <c r="C7" s="42" t="n">
         <v>44598.0</v>
       </c>
-      <c r="D7" t="s" s="1">
+      <c r="D7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="G7" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s" s="1">
-        <v>59</v>
+      <c r="E7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="40" t="n">
+        <v>18.9207</v>
+      </c>
+      <c r="G7" s="43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="41" t="n">
+        <v>18.9207</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2158,23 +2166,23 @@
       <c r="B8" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n" s="35">
+      <c r="C8" s="50" t="n">
         <v>44598.0</v>
       </c>
-      <c r="D8" t="s" s="1">
+      <c r="D8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="F8" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s" s="1">
-        <v>60</v>
+      <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="48" t="n">
+        <v>129.5548</v>
+      </c>
+      <c r="G8" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="49" t="n">
+        <v>129.5548</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2260,11 +2268,11 @@
       <c r="C2" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="str">
+      <c r="D2" s="18" t="n">
         <f aca="false">i_InstrumentAttribute!I3</f>
         <v>10000.0</v>
       </c>
-      <c r="E2" s="18" t="str">
+      <c r="E2" s="18" t="n">
         <f aca="false">i_InstrumentAttribute!H3</f>
         <v>12.0</v>
       </c>
@@ -2378,9 +2386,9 @@
       <c r="C7" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="18" t="str">
+      <c r="D7" s="18" t="n">
         <f aca="false">i_Metric!H3</f>
-        <v>9350.0000</v>
+        <v>9350.0</v>
       </c>
       <c r="F7" s="18" t="n">
         <f aca="false">D7*F2</f>
@@ -2394,9 +2402,9 @@
       <c r="C8" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="str">
+      <c r="D8" s="18" t="n">
         <f aca="false">i_Metric!H2</f>
-        <v>18050.0000</v>
+        <v>18050.0</v>
       </c>
       <c r="F8" s="18" t="n">
         <f aca="false">D8*F3</f>
@@ -2410,9 +2418,9 @@
       <c r="C9" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="D9" s="18" t="str">
+      <c r="D9" s="18" t="n">
         <f aca="false">i_Metric!H4</f>
-        <v>28850.0000</v>
+        <v>28850.0</v>
       </c>
       <c r="F9" s="18" t="n">
         <f aca="false">D9*F4</f>

--- a/model/processed_outputLOAN1.xlsx
+++ b/model/processed_outputLOAN1.xlsx
@@ -2022,7 +2022,7 @@
       <c r="B2" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="38" t="n">
+      <c r="C2" s="34" t="n">
         <v>44598.0</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -2031,13 +2031,13 @@
       <c r="E2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="36" t="n">
+      <c r="F2" s="32" t="n">
         <v>18050.0</v>
       </c>
-      <c r="G2" s="39" t="n">
+      <c r="G2" s="35" t="n">
         <v>0.0</v>
       </c>
-      <c r="H2" s="37" t="n">
+      <c r="H2" s="33" t="n">
         <v>18050.0</v>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       <c r="B6" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="n">
+      <c r="C6" s="38" t="n">
         <v>44598.0</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -2123,13 +2123,13 @@
       <c r="E6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="32" t="n">
+      <c r="F6" s="36" t="n">
         <v>74.5178</v>
       </c>
-      <c r="G6" s="35" t="n">
+      <c r="G6" s="39" t="n">
         <v>0.0</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="37" t="n">
         <v>74.5178</v>
       </c>
     </row>
